--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4384" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -852,10 +864,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -899,28 +911,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="2">
+      <c r="A27" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="2">
+      <c r="C27" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -945,28 +957,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="2">
+      <c r="C29" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="2">
+      <c r="D29" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="2">
+      <c r="I29" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1285,10 +1297,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1332,28 +1344,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1378,28 +1390,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1805,10 +1817,10 @@
       <c r="I58">
         <f>((C58-C57)^2+(D58- D57)^2)^.5</f>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K58" s="2" t="s">
+      <c r="J58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K58" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L58" t="n">
@@ -1852,28 +1864,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="2">
+      <c r="A60" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s" s="2">
+      <c r="C60" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D60" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1898,28 +1910,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C62" t="s" s="2">
+      <c r="C62" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D62" t="s" s="2">
+      <c r="D62" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I62" t="s" s="2">
+      <c r="I62" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1978,10 +1990,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2025,28 +2037,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2071,28 +2083,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2209,10 +2221,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2256,28 +2268,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2302,28 +2314,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2469,10 +2481,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2516,28 +2528,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2562,28 +2574,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2700,10 +2712,10 @@
       <c r="I89">
         <f>((C89-C88)^2+(D89- D88)^2)^.5</f>
       </c>
-      <c r="J89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L89" t="n">
@@ -2747,28 +2759,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="2">
+      <c r="A91" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C91" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s" s="2">
+      <c r="C91" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2793,28 +2805,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C93" t="s" s="2">
+      <c r="C93" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D93" t="s" s="2">
+      <c r="D93" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I93" t="s" s="2">
+      <c r="I93" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2931,10 +2943,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2978,28 +2990,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3024,28 +3036,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3393,10 +3405,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3440,28 +3452,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3486,28 +3498,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3566,10 +3578,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3613,28 +3625,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3659,28 +3671,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3768,10 +3780,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3815,28 +3827,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3861,28 +3873,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3999,10 +4011,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4046,28 +4058,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4092,28 +4104,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4172,10 +4184,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4219,28 +4231,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4265,28 +4277,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4374,10 +4386,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4421,28 +4433,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4467,28 +4479,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4605,10 +4617,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4652,28 +4664,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4698,28 +4710,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4778,10 +4790,10 @@
       <c r="I161">
         <f>((C161-C160)^2+(D161- D160)^2)^.5</f>
       </c>
-      <c r="J161" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K161" s="2" t="s">
+      <c r="J161" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L161" t="n">
@@ -4825,28 +4837,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="2">
+      <c r="A163" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C163" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D163" t="s" s="2">
+      <c r="C163" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D163" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4871,28 +4883,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I165" t="s" s="2">
+      <c r="I165" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4980,10 +4992,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5027,28 +5039,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5073,28 +5085,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5153,10 +5165,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5200,28 +5212,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5246,28 +5258,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5326,10 +5338,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5373,28 +5385,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5419,28 +5431,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5499,10 +5511,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="2" t="s">
+      <c r="J186" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5546,28 +5558,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="2">
+      <c r="A188" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="2">
+      <c r="C188" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5592,28 +5604,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="2">
+      <c r="C190" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="2">
+      <c r="D190" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="2">
+      <c r="I190" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5672,10 +5684,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5719,28 +5731,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5765,28 +5777,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5845,10 +5857,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5892,28 +5904,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5938,28 +5950,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6018,10 +6030,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6065,28 +6077,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6111,28 +6123,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6191,10 +6203,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6238,28 +6250,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6284,28 +6296,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6364,10 +6376,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6411,28 +6423,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6457,28 +6469,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6537,10 +6549,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6584,28 +6596,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6630,28 +6642,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6710,10 +6722,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6757,28 +6769,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6803,28 +6815,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6883,10 +6895,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6930,28 +6942,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6976,28 +6988,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7056,10 +7068,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7103,28 +7115,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7149,28 +7161,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7229,10 +7241,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7276,28 +7288,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7322,28 +7334,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7402,10 +7414,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7449,28 +7461,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7495,28 +7507,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7575,10 +7587,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7622,28 +7634,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7668,28 +7680,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7748,10 +7760,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7795,28 +7807,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7841,28 +7853,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7921,10 +7933,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7968,28 +7980,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8014,28 +8026,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8094,10 +8106,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8141,28 +8153,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8187,28 +8199,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8267,10 +8279,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8314,28 +8326,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8360,28 +8372,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8440,10 +8452,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8487,28 +8499,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8533,28 +8545,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8613,10 +8625,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8660,28 +8672,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8706,28 +8718,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8786,10 +8798,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8833,28 +8845,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8879,28 +8891,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8959,10 +8971,10 @@
       <c r="I306">
         <f>((C306-C305)^2+(D306- D305)^2)^.5</f>
       </c>
-      <c r="J306" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K306" s="2" t="s">
+      <c r="J306" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K306" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L306" t="n">
@@ -9006,28 +9018,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="s" s="2">
+      <c r="A308" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C308" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D308" t="s" s="2">
+      <c r="C308" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D308" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9052,28 +9064,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C310" t="s" s="2">
+      <c r="C310" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D310" t="s" s="2">
+      <c r="D310" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I310" t="s" s="2">
+      <c r="I310" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9132,10 +9144,10 @@
       <c r="I312">
         <f>((C312-C311)^2+(D312- D311)^2)^.5</f>
       </c>
-      <c r="J312" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K312" s="2" t="s">
+      <c r="J312" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K312" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L312" t="n">
@@ -9179,28 +9191,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="s" s="2">
+      <c r="A314" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C314" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D314" t="s" s="2">
+      <c r="C314" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D314" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9225,28 +9237,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C316" t="s" s="2">
+      <c r="C316" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D316" t="s" s="2">
+      <c r="D316" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I316" t="s" s="2">
+      <c r="I316" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9305,10 +9317,10 @@
       <c r="I318">
         <f>((C318-C317)^2+(D318- D317)^2)^.5</f>
       </c>
-      <c r="J318" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K318" s="2" t="s">
+      <c r="J318" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K318" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L318" t="n">
@@ -9352,28 +9364,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="s" s="2">
+      <c r="A320" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C320" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D320" t="s" s="2">
+      <c r="C320" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D320" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9398,28 +9410,28 @@
       </c>
     </row>
     <row r="322">
-      <c r="B322" t="s" s="2">
+      <c r="B322" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C322" t="s" s="2">
+      <c r="C322" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D322" t="s" s="2">
+      <c r="D322" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E322" t="s" s="2">
+      <c r="E322" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F322" t="s" s="2">
+      <c r="F322" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G322" t="s" s="2">
+      <c r="G322" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H322" t="s" s="2">
+      <c r="H322" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I322" t="s" s="2">
+      <c r="I322" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9536,10 +9548,10 @@
       <c r="I326">
         <f>((C326-C325)^2+(D326- D325)^2)^.5</f>
       </c>
-      <c r="J326" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K326" s="2" t="s">
+      <c r="J326" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K326" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L326" t="n">
@@ -9583,28 +9595,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="s" s="2">
+      <c r="A328" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B328" t="s" s="2">
+      <c r="B328" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C328" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D328" t="s" s="2">
+      <c r="C328" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D328" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E328" t="s" s="2">
+      <c r="E328" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F328" t="s" s="2">
+      <c r="F328" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G328" t="s" s="2">
+      <c r="G328" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H328" t="s" s="2">
+      <c r="H328" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9629,28 +9641,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="B330" t="s" s="2">
+      <c r="B330" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C330" t="s" s="2">
+      <c r="C330" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D330" t="s" s="2">
+      <c r="D330" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E330" t="s" s="2">
+      <c r="E330" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F330" t="s" s="2">
+      <c r="F330" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G330" t="s" s="2">
+      <c r="G330" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H330" t="s" s="2">
+      <c r="H330" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I330" t="s" s="2">
+      <c r="I330" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9709,10 +9721,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="2" t="s">
+      <c r="J332" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9756,28 +9768,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="2">
+      <c r="A334" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="2">
+      <c r="B334" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="2">
+      <c r="C334" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="2">
+      <c r="E334" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="2">
+      <c r="F334" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="2">
+      <c r="G334" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="2">
+      <c r="H334" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9802,28 +9814,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="2">
+      <c r="B336" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="2">
+      <c r="C336" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="2">
+      <c r="D336" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="2">
+      <c r="E336" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="2">
+      <c r="F336" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="2">
+      <c r="G336" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="2">
+      <c r="H336" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="2">
+      <c r="I336" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9882,10 +9894,10 @@
       <c r="I338">
         <f>((C338-C337)^2+(D338- D337)^2)^.5</f>
       </c>
-      <c r="J338" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K338" s="2" t="s">
+      <c r="J338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K338" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L338" t="n">
@@ -9929,28 +9941,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="s" s="2">
+      <c r="A340" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C340" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D340" t="s" s="2">
+      <c r="C340" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D340" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9975,28 +9987,28 @@
       </c>
     </row>
     <row r="342">
-      <c r="B342" t="s" s="2">
+      <c r="B342" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C342" t="s" s="2">
+      <c r="C342" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D342" t="s" s="2">
+      <c r="D342" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E342" t="s" s="2">
+      <c r="E342" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F342" t="s" s="2">
+      <c r="F342" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G342" t="s" s="2">
+      <c r="G342" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H342" t="s" s="2">
+      <c r="H342" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I342" t="s" s="2">
+      <c r="I342" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10055,10 +10067,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10102,28 +10114,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10148,28 +10160,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10228,10 +10240,10 @@
       <c r="I350">
         <f>((C350-C349)^2+(D350- D349)^2)^.5</f>
       </c>
-      <c r="J350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K350" s="2" t="s">
+      <c r="J350" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K350" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L350" t="n">
@@ -10275,28 +10287,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="s" s="2">
+      <c r="A352" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C352" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D352" t="s" s="2">
+      <c r="C352" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D352" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10321,28 +10333,28 @@
       </c>
     </row>
     <row r="354">
-      <c r="B354" t="s" s="2">
+      <c r="B354" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C354" t="s" s="2">
+      <c r="C354" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D354" t="s" s="2">
+      <c r="D354" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E354" t="s" s="2">
+      <c r="E354" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F354" t="s" s="2">
+      <c r="F354" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G354" t="s" s="2">
+      <c r="G354" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H354" t="s" s="2">
+      <c r="H354" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I354" t="s" s="2">
+      <c r="I354" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10401,10 +10413,10 @@
       <c r="I356">
         <f>((C356-C355)^2+(D356- D355)^2)^.5</f>
       </c>
-      <c r="J356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K356" s="2" t="s">
+      <c r="J356" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K356" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L356" t="n">
@@ -10448,28 +10460,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="s" s="2">
+      <c r="A358" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C358" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D358" t="s" s="2">
+      <c r="C358" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D358" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10494,28 +10506,28 @@
       </c>
     </row>
     <row r="360">
-      <c r="B360" t="s" s="2">
+      <c r="B360" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C360" t="s" s="2">
+      <c r="C360" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D360" t="s" s="2">
+      <c r="D360" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E360" t="s" s="2">
+      <c r="E360" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F360" t="s" s="2">
+      <c r="F360" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G360" t="s" s="2">
+      <c r="G360" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H360" t="s" s="2">
+      <c r="H360" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I360" t="s" s="2">
+      <c r="I360" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10603,10 +10615,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10650,28 +10662,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10696,28 +10708,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10776,10 +10788,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10823,28 +10835,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10869,28 +10881,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10949,10 +10961,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="2" t="s">
+      <c r="J375" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -10996,28 +11008,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="2">
+      <c r="A377" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="2">
+      <c r="C377" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11042,28 +11054,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="2">
+      <c r="B379" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="2">
+      <c r="C379" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="2">
+      <c r="D379" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="2">
+      <c r="E379" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="2">
+      <c r="F379" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="2">
+      <c r="G379" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="2">
+      <c r="H379" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="2">
+      <c r="I379" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11151,10 +11163,10 @@
       <c r="I382">
         <f>((C382-C381)^2+(D382- D381)^2)^.5</f>
       </c>
-      <c r="J382" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K382" s="2" t="s">
+      <c r="J382" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K382" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L382" t="n">
@@ -11198,28 +11210,28 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="s" s="2">
+      <c r="A384" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B384" t="s" s="2">
+      <c r="B384" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C384" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D384" t="s" s="2">
+      <c r="C384" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D384" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E384" t="s" s="2">
+      <c r="E384" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F384" t="s" s="2">
+      <c r="F384" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G384" t="s" s="2">
+      <c r="G384" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H384" t="s" s="2">
+      <c r="H384" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11244,28 +11256,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="B386" t="s" s="2">
+      <c r="B386" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C386" t="s" s="2">
+      <c r="C386" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D386" t="s" s="2">
+      <c r="D386" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E386" t="s" s="2">
+      <c r="E386" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F386" t="s" s="2">
+      <c r="F386" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G386" t="s" s="2">
+      <c r="G386" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H386" t="s" s="2">
+      <c r="H386" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I386" t="s" s="2">
+      <c r="I386" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11324,10 +11336,10 @@
       <c r="I388">
         <f>((C388-C387)^2+(D388- D387)^2)^.5</f>
       </c>
-      <c r="J388" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K388" s="2" t="s">
+      <c r="J388" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K388" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L388" t="n">
@@ -11371,28 +11383,28 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="s" s="2">
+      <c r="A390" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B390" t="s" s="2">
+      <c r="B390" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C390" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D390" t="s" s="2">
+      <c r="C390" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D390" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E390" t="s" s="2">
+      <c r="E390" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F390" t="s" s="2">
+      <c r="F390" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G390" t="s" s="2">
+      <c r="G390" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H390" t="s" s="2">
+      <c r="H390" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11417,28 +11429,28 @@
       </c>
     </row>
     <row r="392">
-      <c r="B392" t="s" s="2">
+      <c r="B392" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C392" t="s" s="2">
+      <c r="C392" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D392" t="s" s="2">
+      <c r="D392" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E392" t="s" s="2">
+      <c r="E392" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F392" t="s" s="2">
+      <c r="F392" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G392" t="s" s="2">
+      <c r="G392" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H392" t="s" s="2">
+      <c r="H392" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I392" t="s" s="2">
+      <c r="I392" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11497,10 +11509,10 @@
       <c r="I394">
         <f>((C394-C393)^2+(D394- D393)^2)^.5</f>
       </c>
-      <c r="J394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K394" s="2" t="s">
+      <c r="J394" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K394" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L394" t="n">
@@ -11544,28 +11556,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="s" s="2">
+      <c r="A396" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B396" t="s" s="2">
+      <c r="B396" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C396" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D396" t="s" s="2">
+      <c r="C396" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D396" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E396" t="s" s="2">
+      <c r="E396" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F396" t="s" s="2">
+      <c r="F396" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G396" t="s" s="2">
+      <c r="G396" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H396" t="s" s="2">
+      <c r="H396" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11590,28 +11602,28 @@
       </c>
     </row>
     <row r="398">
-      <c r="B398" t="s" s="2">
+      <c r="B398" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C398" t="s" s="2">
+      <c r="C398" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D398" t="s" s="2">
+      <c r="D398" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E398" t="s" s="2">
+      <c r="E398" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F398" t="s" s="2">
+      <c r="F398" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G398" t="s" s="2">
+      <c r="G398" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H398" t="s" s="2">
+      <c r="H398" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I398" t="s" s="2">
+      <c r="I398" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11699,10 +11711,10 @@
       <c r="I401">
         <f>((C401-C400)^2+(D401- D400)^2)^.5</f>
       </c>
-      <c r="J401" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K401" s="2" t="s">
+      <c r="J401" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K401" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L401" t="n">
